--- a/Alura_Python/Projeto_imerção_Python/acoes_pura.xlsx
+++ b/Alura_Python/Projeto_imerção_Python/acoes_pura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Python\Alura_Python\Projeto_imerção_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CC797D-B346-4377-830A-EC902A746DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17510F6D-7ACB-4F87-B116-B4D28C46BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="21270" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34785" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -6023,8 +6023,8 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12782,6 +12782,7 @@
     <row r="1000" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12792,9 +12793,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -47336,7 +47335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B171C1DA-30BD-4638-BCDC-9E92A80F0EF2}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>

--- a/Alura_Python/Projeto_imerção_Python/acoes_pura.xlsx
+++ b/Alura_Python/Projeto_imerção_Python/acoes_pura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Python\Alura_Python\Projeto_imerção_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17510F6D-7ACB-4F87-B116-B4D28C46BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327BAAA-5A7F-4B0E-926A-3EC881302A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34785" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -6024,7 +6024,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/Alura_Python/Projeto_imerção_Python/acoes_pura.xlsx
+++ b/Alura_Python/Projeto_imerção_Python/acoes_pura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Python\Alura_Python\Projeto_imerção_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327BAAA-5A7F-4B0E-926A-3EC881302A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F8218-E52A-4716-8207-2FE1C9EA0381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6024,7 +6024,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -17174,7 +17174,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A297" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -47335,7 +47335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B171C1DA-30BD-4638-BCDC-9E92A80F0EF2}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -48259,7 +48259,7 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
